--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -62,13 +62,10 @@
     <t>TesteoA</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Fuerte</t>
-  </si>
-  <si>
-    <t>medio</t>
+    <t>TesteoB</t>
+  </si>
+  <si>
+    <t>hola mundo</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -571,24 +568,53 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -47,25 +47,16 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>testeo</t>
-  </si>
-  <si>
-    <t>Rara</t>
-  </si>
-  <si>
-    <t>Bajo</t>
+    <t>Riesgo Testseo</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>BAJO</t>
   </si>
   <si>
     <t>Activo</t>
-  </si>
-  <si>
-    <t>TesteoA</t>
-  </si>
-  <si>
-    <t>TesteoB</t>
-  </si>
-  <si>
-    <t>hola mundo</t>
   </si>
 </sst>
 </file>
@@ -431,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -510,111 +501,26 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>3750</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -47,16 +47,22 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Riesgo Testseo</t>
+    <t>Riesgo A</t>
   </si>
   <si>
     <t>ALTO</t>
   </si>
   <si>
-    <t>BAJO</t>
-  </si>
-  <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>RiesgoB</t>
+  </si>
+  <si>
+    <t>MODERADO</t>
+  </si>
+  <si>
+    <t>RIESGO TESTEO</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -501,7 +507,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -512,16 +518,66 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>3750</v>
+        <v>9000</v>
       </c>
       <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>16.2</v>
+      </c>
+      <c r="G8">
+        <v>2700</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -47,22 +47,70 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Riesgo A</t>
+    <t>ReisgoA</t>
+  </si>
+  <si>
+    <t>MUY PROBABLE</t>
+  </si>
+  <si>
+    <t>MAYOR</t>
+  </si>
+  <si>
+    <t>EXTREMO</t>
+  </si>
+  <si>
+    <t>RARO</t>
+  </si>
+  <si>
+    <t>INSIGNIFICANTE</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>RiesgoB</t>
+  </si>
+  <si>
+    <t>RiesgoC</t>
+  </si>
+  <si>
+    <t>IMPROBABLE</t>
   </si>
   <si>
     <t>ALTO</t>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>RiesgoB</t>
-  </si>
-  <si>
     <t>MODERADO</t>
   </si>
   <si>
-    <t>RIESGO TESTEO</t>
+    <t>RiesgoD</t>
+  </si>
+  <si>
+    <t>RiesgoE</t>
+  </si>
+  <si>
+    <t>RiesgoF</t>
+  </si>
+  <si>
+    <t>RiesgoG</t>
+  </si>
+  <si>
+    <t>POSIBLE</t>
+  </si>
+  <si>
+    <t>RiesgoH</t>
+  </si>
+  <si>
+    <t>RiesgoI</t>
+  </si>
+  <si>
+    <t>RiesgoJ</t>
+  </si>
+  <si>
+    <t>MENOR</t>
   </si>
 </sst>
 </file>
@@ -428,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -507,77 +555,292 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>9000</v>
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>16.2</v>
-      </c>
-      <c r="G8">
-        <v>2700</v>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>7.5</v>
-      </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>MENOR</t>
+  </si>
+  <si>
+    <t>asdada</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ASD1231</t>
+  </si>
+  <si>
+    <t>prueba escena 2</t>
+  </si>
+  <si>
+    <t>khgkjh</t>
+  </si>
+  <si>
+    <t>klnmoinonon</t>
   </si>
 </sst>
 </file>
@@ -476,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -843,6 +864,209 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -45,30 +45,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>RIESGOA</t>
-  </si>
-  <si>
-    <t>RARO</t>
-  </si>
-  <si>
-    <t>PROBABLE</t>
-  </si>
-  <si>
-    <t>ALTO</t>
-  </si>
-  <si>
-    <t>IMPROBABLE</t>
-  </si>
-  <si>
-    <t>MEDIO</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>RIESGOB</t>
   </si>
 </sst>
 </file>
@@ -434,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -511,64 +487,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>2.5</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>ASDA</t>
+  </si>
+  <si>
+    <t>RARO</t>
+  </si>
+  <si>
+    <t>INSIGNIFICANTE</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>asdaadsadaa</t>
   </si>
 </sst>
 </file>
@@ -410,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -487,6 +505,64 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>ASDA</t>
-  </si>
-  <si>
-    <t>RARO</t>
-  </si>
-  <si>
-    <t>INSIGNIFICANTE</t>
-  </si>
-  <si>
-    <t>BAJO</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>asdaadsadaa</t>
   </si>
 </sst>
 </file>
@@ -428,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:I6"/>
@@ -505,64 +487,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>
